--- a/application/views/rpt/ru/doc/nakladnaya.xlsx
+++ b/application/views/rpt/ru/doc/nakladnaya.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">ИНН/КПП: </t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Основание :</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Валюта: Российский рубль</t>
   </si>
   <si>
     <t>№
@@ -98,9 +95,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>В том числе НДС 18%</t>
-  </si>
-  <si>
     <t>Всего к оплате</t>
   </si>
   <si>
@@ -190,6 +184,9 @@
   </si>
   <si>
     <t>В том числе НДС: {$v-&gt;doc_view-&gt;vat_spell}</t>
+  </si>
+  <si>
+    <t>В том числе НДС</t>
   </si>
 </sst>
 </file>
@@ -412,11 +409,32 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,32 +464,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,7 +766,7 @@
     <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="1" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
@@ -789,623 +786,655 @@
   <sheetData>
     <row r="1" spans="2:25" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="2:25" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-    </row>
-    <row r="3" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-    </row>
-    <row r="4" spans="2:25" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+    </row>
+    <row r="7" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-    </row>
-    <row r="5" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-    </row>
-    <row r="6" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-    </row>
-    <row r="7" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="2:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-    </row>
-    <row r="8" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-    </row>
-    <row r="9" spans="2:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-    </row>
-    <row r="10" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="2:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24" t="s">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24" t="s">
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24" t="s">
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25" t="s">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25" t="s">
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25" t="s">
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16" t="s">
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17" t="s">
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18" t="s">
+    </row>
+    <row r="16" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="7" t="s">
+    </row>
+    <row r="17" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K16" s="19" t="s">
+    <row r="18" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="8" t="s">
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="8" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
+      <c r="B20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
     </row>
     <row r="21" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
     </row>
     <row r="22" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="I23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+    </row>
+    <row r="24" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="I24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="P24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="X24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="19"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-    </row>
-    <row r="24" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="P24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="X24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24" s="12"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="P23:V23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y25"/>
+    <mergeCell ref="B21:Y21"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="K16:X16"/>
+    <mergeCell ref="K17:X17"/>
+    <mergeCell ref="K18:X18"/>
+    <mergeCell ref="B20:Y20"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G9:Y9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:Y10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="G5:Y5"/>
     <mergeCell ref="B26:Y26"/>
@@ -1422,40 +1451,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="G8:Y8"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="G9:Y9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:Y10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y25"/>
-    <mergeCell ref="B21:Y21"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="K16:X16"/>
-    <mergeCell ref="K17:X17"/>
-    <mergeCell ref="K18:X18"/>
-    <mergeCell ref="B20:Y20"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="P24:V24"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="P23:V23"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
